--- a/club/id_check_log.xlsx
+++ b/club/id_check_log.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,50 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-02-08 15:47:24</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Allowed</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1954-06-12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>passport</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Scott Harvey-Whittle</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-02-08 16:00:20</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Banned</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/club/id_check_log.xlsx
+++ b/club/id_check_log.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,50 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Scott Harvey-Whittle</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-02-09 03:52:58</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Banned</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sott</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-02-09 03:58:40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Allowed</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1984-10-26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>passport</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
